--- a/DATA/test.xlsx
+++ b/DATA/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01_작업자료\00_주요사업\2021년_빅데이터 환경 조성 지원\사업운영\02_빅콘테스트\대회 데이터\문제 데이터\07_데이터분석분야_챔피언리그_수산Biz\02_평가데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fb69a65b5fef29a/바탕 화면/이현방/빅콘테스트/Seafood_Import_Price_Prediction/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8199AC32-F5EA-4582-B185-8B431980D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="평가데이터시트" sheetId="20" r:id="rId1"/>
@@ -496,6 +496,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,15 +516,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -906,7 +906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -922,68 +924,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>43927</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="2">
         <v>43927</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="2">
@@ -992,1280 +994,1280 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2">
         <v>43934</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2">
         <v>43934</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="2">
         <v>43934</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2">
         <v>43941</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="2">
         <v>43941</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="2">
         <v>43941</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2">
         <v>43948</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="2">
         <v>43948</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="2">
         <v>43948</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2">
         <v>43955</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="2">
         <v>43955</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="2">
         <v>43955</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2">
         <v>43962</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="2">
         <v>43962</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="2">
         <v>43962</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2">
         <v>43969</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="2">
         <v>43969</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="2">
         <v>43969</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2">
         <v>43976</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="2">
         <v>43976</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="2">
         <v>43976</v>
       </c>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2">
         <v>43983</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="2">
         <v>43983</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="2">
         <v>43983</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2">
         <v>43990</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="2">
         <v>43990</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="2">
         <v>43990</v>
       </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2">
         <v>43997</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="2">
         <v>43997</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="2">
         <v>43997</v>
       </c>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2">
         <v>44004</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="2">
         <v>44004</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="2">
         <v>44004</v>
       </c>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2">
         <v>44011</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="2">
         <v>44011</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="2">
         <v>44011</v>
       </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="2">
         <v>44018</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="2">
         <v>44018</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="2">
         <v>44018</v>
       </c>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2">
         <v>44025</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="2">
         <v>44025</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="2">
         <v>44025</v>
       </c>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2">
         <v>44032</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="2">
         <v>44032</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="2">
         <v>44032</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2">
         <v>44039</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="2">
         <v>44039</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="2">
         <v>44039</v>
       </c>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2">
         <v>44046</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="2">
         <v>44046</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="2">
         <v>44046</v>
       </c>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2">
         <v>44053</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="2">
         <v>44053</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="2">
         <v>44053</v>
       </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="2">
         <v>44060</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="2">
         <v>44060</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="2">
         <v>44060</v>
       </c>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="2">
         <v>44067</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="2">
         <v>44067</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="2">
         <v>44067</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="2">
         <v>44074</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="2">
         <v>44074</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="2">
         <v>44074</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="2">
         <v>44081</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="2">
         <v>44081</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="2">
         <v>44081</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="2">
         <v>44088</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="2">
         <v>44088</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="2">
         <v>44088</v>
       </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="2">
         <v>44095</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="2">
         <v>44095</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="2">
         <v>44095</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="2">
         <v>44102</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="2">
         <v>44102</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="2">
         <v>44102</v>
       </c>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="2">
         <v>44109</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="2">
         <v>44109</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="2">
         <v>44109</v>
       </c>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="2">
         <v>44116</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="2">
         <v>44116</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="2">
         <v>44116</v>
       </c>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="2">
         <v>44123</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="2">
         <v>44123</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="2">
         <v>44123</v>
       </c>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2">
         <v>44130</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="2">
         <v>44130</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="2">
         <v>44130</v>
       </c>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="2">
         <v>44137</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="2">
         <v>44137</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="2">
         <v>44137</v>
       </c>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="2">
         <v>44144</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="2">
         <v>44144</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="2">
         <v>44144</v>
       </c>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="2">
         <v>44151</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="2">
         <v>44151</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="2">
         <v>44151</v>
       </c>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="2">
         <v>44158</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="2">
         <v>44158</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="2">
         <v>44158</v>
       </c>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="2">
         <v>44165</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="2">
         <v>44165</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="2">
         <v>44165</v>
       </c>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="2">
         <v>44172</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="2">
         <v>44172</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="2">
         <v>44172</v>
       </c>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="2">
         <v>44179</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="2">
         <v>44179</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="2">
         <v>44179</v>
       </c>
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="2">
         <v>44186</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="2">
         <v>44186</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="2">
         <v>44186</v>
       </c>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="2">
         <v>44193</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="2">
         <v>44193</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="2">
         <v>44193</v>
       </c>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="2">
         <v>44200</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="2">
         <v>44200</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="2">
         <v>44200</v>
       </c>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="2">
         <v>44207</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="2">
         <v>44207</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="2">
         <v>44207</v>
       </c>
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="2">
         <v>44214</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="2">
         <v>44214</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="2">
         <v>44214</v>
       </c>
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="2">
         <v>44221</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="2">
         <v>44221</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="2">
         <v>44221</v>
       </c>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="2">
         <v>44228</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="2">
         <v>44228</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="2">
         <v>44228</v>
       </c>
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="2">
         <v>44235</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="2">
         <v>44235</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="2">
         <v>44235</v>
       </c>
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="2">
         <v>44242</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="2">
         <v>44242</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="2">
         <v>44242</v>
       </c>
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="2">
         <v>44249</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="2">
         <v>44249</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="2">
         <v>44249</v>
       </c>
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="2">
         <v>44256</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="2">
         <v>44256</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="2">
         <v>44256</v>
       </c>
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="4"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="2">
         <v>44263</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="2">
         <v>44263</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="2">
         <v>44263</v>
       </c>
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="4"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="2">
         <v>44270</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="2">
         <v>44270</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
       <c r="M51" s="2">
         <v>44270</v>
       </c>
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="4"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="2">
         <v>44277</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="2">
         <v>44277</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="2">
         <v>44277</v>
       </c>
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="4"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="2">
         <v>44284</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="2">
         <v>44284</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
       <c r="M53" s="2">
         <v>44284</v>
       </c>
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="4"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="2">
         <v>44291</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="2">
         <v>44291</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="2">
         <v>44291</v>
       </c>
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="4"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="2">
         <v>44298</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="2">
         <v>44298</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="2">
         <v>44298</v>
       </c>
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="4"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="2">
         <v>44305</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="2">
         <v>44305</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="2">
         <v>44305</v>
       </c>
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="4"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2">
         <v>44312</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="2">
         <v>44312</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="2">
         <v>44312</v>
       </c>
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="4"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="2">
         <v>44319</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="2">
         <v>44319</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="2">
         <v>44319</v>
       </c>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="4"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="2">
         <v>44326</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="2">
         <v>44326</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
       <c r="M59" s="2">
         <v>44326</v>
       </c>
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="4"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="2">
         <v>44333</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="2">
         <v>44333</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
       <c r="M60" s="2">
         <v>44333</v>
       </c>
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="4"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="2">
         <v>44340</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="2">
         <v>44340</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
       <c r="M61" s="2">
         <v>44340</v>
       </c>
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="4"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="2">
         <v>44347</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="2">
         <v>44347</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
       <c r="M62" s="2">
         <v>44347</v>
       </c>
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="4"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="2">
         <v>44354</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="2">
         <v>44354</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
       <c r="M63" s="2">
         <v>44354</v>
       </c>
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="4"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="2">
         <v>44361</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="2">
         <v>44361</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
       <c r="M64" s="2">
         <v>44361</v>
       </c>
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="4"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="2">
         <v>44368</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="2">
         <v>44368</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="2">
         <v>44368</v>
       </c>
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="4"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="2">
         <v>44375</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="2">
         <v>44375</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
       <c r="M66" s="2">
         <v>44375</v>
       </c>
@@ -2282,5 +2284,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>